--- a/final_project/gru_gbrbm_H_per_2 (drop 0.2)/type1/pd_results_W20_H50_B32.xlsx
+++ b/final_project/gru_gbrbm_H_per_2 (drop 0.2)/type1/pd_results_W20_H50_B32.xlsx
@@ -502,25 +502,23 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.549079754601227</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
+        <v>0.551829268292683</v>
+      </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>0.988950276243094</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5457317073170732</v>
+        <v>0.551829268292683</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7061143984220909</v>
+        <v>0.7111984282907663</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4695121951219512</v>
+        <v>0.4847560975609756</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -528,19 +526,19 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0.1048339578666471</v>
+        <v>0.06972775400389779</v>
       </c>
       <c r="J2" t="n">
-        <v>1405.724746026484</v>
+        <v>879.1534917821117</v>
       </c>
       <c r="K2" t="n">
-        <v>2858320.658727381</v>
+        <v>959861.6607368514</v>
       </c>
       <c r="L2" t="n">
-        <v>1690.65687196645</v>
+        <v>979.725298610203</v>
       </c>
       <c r="M2" t="n">
-        <v>0.4608039555375112</v>
+        <v>0.8189308784792054</v>
       </c>
     </row>
   </sheetData>
